--- a/Datasets/input.xlsx
+++ b/Datasets/input.xlsx
@@ -42,7 +42,10 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -400,6 +403,7 @@
       <c r="B12" s="4">
         <v>63955.0</v>
       </c>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="3">
@@ -2798,7 +2802,7 @@
         <v>44136.0</v>
       </c>
       <c r="B312" s="4">
-        <v>75541.0</v>
+        <v>76747.0</v>
       </c>
     </row>
     <row r="313" ht="15.75" customHeight="1">
@@ -2806,7 +2810,7 @@
         <v>44166.0</v>
       </c>
       <c r="B313" s="4">
-        <v>82433.0</v>
+        <v>83818.0</v>
       </c>
     </row>
     <row r="314" ht="15.75" customHeight="1">
@@ -2814,7 +2818,7 @@
         <v>44197.0</v>
       </c>
       <c r="B314" s="4">
-        <v>61317.0</v>
+        <v>62240.0</v>
       </c>
     </row>
     <row r="315" ht="15.75" customHeight="1">
@@ -2822,7 +2826,7 @@
         <v>44228.0</v>
       </c>
       <c r="B315" s="4">
-        <v>76355.0</v>
+        <v>77525.0</v>
       </c>
     </row>
     <row r="316" ht="15.75" customHeight="1">
@@ -2830,7 +2834,7 @@
         <v>44256.0</v>
       </c>
       <c r="B316" s="4">
-        <v>105493.0</v>
+        <v>107399.0</v>
       </c>
     </row>
     <row r="317" ht="15.75" customHeight="1">
@@ -2838,7 +2842,7 @@
         <v>44287.0</v>
       </c>
       <c r="B317" s="4">
-        <v>66565.0</v>
+        <v>67704.0</v>
       </c>
     </row>
     <row r="318" ht="15.75" customHeight="1">
@@ -2846,7 +2850,7 @@
         <v>44317.0</v>
       </c>
       <c r="B318" s="4">
-        <v>56135.0</v>
+        <v>57106.0</v>
       </c>
     </row>
     <row r="319" ht="15.75" customHeight="1">
@@ -2854,7 +2858,7 @@
         <v>44348.0</v>
       </c>
       <c r="B319" s="4">
-        <v>103085.0</v>
+        <v>121727.0</v>
       </c>
     </row>
     <row r="320" ht="15.75" customHeight="1">
@@ -2862,7 +2866,7 @@
         <v>44378.0</v>
       </c>
       <c r="B320" s="4">
-        <v>21935.0</v>
+        <v>27865.0</v>
       </c>
     </row>
     <row r="321" ht="15.75" customHeight="1">
@@ -2870,11 +2874,16 @@
         <v>44409.0</v>
       </c>
       <c r="B321" s="4">
-        <v>26661.0</v>
+        <v>30946.0</v>
       </c>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="A322" s="5"/>
+      <c r="A322" s="3">
+        <v>44440.0</v>
+      </c>
+      <c r="B322" s="4">
+        <v>40929.0</v>
+      </c>
     </row>
     <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="5"/>
@@ -3944,7 +3953,7 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="A1:A997">
+  <conditionalFormatting sqref="A1:A997 C12">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
